--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_train.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_train.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8074396078889018</v>
+        <v>0.7931583087512289</v>
       </c>
       <c r="C4">
-        <v>0.004016253993685104</v>
+        <v>0.004092764830269102</v>
       </c>
       <c r="D4">
-        <v>0.4599991254660151</v>
+        <v>0.457662665656077</v>
       </c>
       <c r="E4">
-        <v>0.005828228890935983</v>
+        <v>0.005027799532633881</v>
       </c>
       <c r="F4">
-        <v>0.7417073170731706</v>
+        <v>0.7411111111111111</v>
       </c>
       <c r="G4">
-        <v>0.007018069005824024</v>
+        <v>0.007017453044385724</v>
       </c>
       <c r="H4">
-        <v>0.3336057880827935</v>
+        <v>0.3312336567693864</v>
       </c>
       <c r="I4">
-        <v>0.00496532494762586</v>
+        <v>0.004150462404462929</v>
       </c>
       <c r="J4">
-        <v>0.9331246108919057</v>
+        <v>0.9314915372966722</v>
       </c>
       <c r="K4">
-        <v>0.001926196247160394</v>
+        <v>0.001876650023797666</v>
       </c>
       <c r="L4">
-        <v>0.7081818181818185</v>
+        <v>0.7012831858407078</v>
       </c>
       <c r="M4">
-        <v>0.004529026942073355</v>
+        <v>0.003992279876428362</v>
       </c>
       <c r="N4">
-        <v>0.7136800000000001</v>
+        <v>0.7078966789667896</v>
       </c>
       <c r="O4">
-        <v>0.0044886081622586</v>
+        <v>0.003861358067250076</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.833282763449644</v>
+        <v>0.8271170108161258</v>
       </c>
       <c r="C5">
-        <v>0.003853151229370799</v>
+        <v>0.003858788553960379</v>
       </c>
       <c r="D5">
-        <v>0.4884473836667851</v>
+        <v>0.494935122888427</v>
       </c>
       <c r="E5">
-        <v>0.00605445485770495</v>
+        <v>0.005302797272008469</v>
       </c>
       <c r="F5">
-        <v>0.7668292682926829</v>
+        <v>0.7677777777777779</v>
       </c>
       <c r="G5">
-        <v>0.007386777475724693</v>
+        <v>0.006961256319625297</v>
       </c>
       <c r="H5">
-        <v>0.3585865953748039</v>
+        <v>0.365383181240607</v>
       </c>
       <c r="I5">
-        <v>0.005181052478217985</v>
+        <v>0.004538862581374592</v>
       </c>
       <c r="J5">
-        <v>0.9409515648843972</v>
+        <v>0.9406858375488433</v>
       </c>
       <c r="K5">
-        <v>0.001932092066653901</v>
+        <v>0.001800677327368327</v>
       </c>
       <c r="L5">
-        <v>0.7299043062200958</v>
+        <v>0.7337168141592921</v>
       </c>
       <c r="M5">
-        <v>0.004257293918202065</v>
+        <v>0.003802252944714923</v>
       </c>
       <c r="N5">
-        <v>0.7359600000000001</v>
+        <v>0.7393726937269374</v>
       </c>
       <c r="O5">
-        <v>0.004297880336468607</v>
+        <v>0.003747395101474038</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8520849673202616</v>
+        <v>0.8719897959183673</v>
       </c>
       <c r="C6">
-        <v>0.004945625680042531</v>
+        <v>0.00440718051771094</v>
       </c>
       <c r="D6">
-        <v>0.4895707345295774</v>
+        <v>0.5287226635793385</v>
       </c>
       <c r="E6">
-        <v>0.009585618006906937</v>
+        <v>0.008167014360764946</v>
       </c>
       <c r="F6">
-        <v>0.7705882352941177</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="G6">
-        <v>0.01224717393782171</v>
+        <v>0.01059938785758607</v>
       </c>
       <c r="H6">
-        <v>0.3592575965169146</v>
+        <v>0.401671285518214</v>
       </c>
       <c r="I6">
-        <v>0.008062665097836264</v>
+        <v>0.00708499334770829</v>
       </c>
       <c r="J6">
-        <v>0.9444045342733313</v>
+        <v>0.9432115894620532</v>
       </c>
       <c r="K6">
-        <v>0.003056571837991906</v>
+        <v>0.002683310144857454</v>
       </c>
       <c r="L6">
-        <v>0.7382222222222226</v>
+        <v>0.7631632653061223</v>
       </c>
       <c r="M6">
-        <v>0.006230436011018026</v>
+        <v>0.004894754836925364</v>
       </c>
       <c r="N6">
-        <v>0.7433644859813083</v>
+        <v>0.7651694915254237</v>
       </c>
       <c r="O6">
-        <v>0.006458480512521514</v>
+        <v>0.00508856132880342</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8879150326797388</v>
+        <v>0.9027040816326529</v>
       </c>
       <c r="C7">
-        <v>0.005463888571426101</v>
+        <v>0.004677342215172797</v>
       </c>
       <c r="D7">
-        <v>0.5699219924124983</v>
+        <v>0.6125792846446746</v>
       </c>
       <c r="E7">
-        <v>0.01169238227728098</v>
+        <v>0.01118972767436299</v>
       </c>
       <c r="F7">
-        <v>0.8464705882352941</v>
+        <v>0.8645</v>
       </c>
       <c r="G7">
-        <v>0.01262287157865793</v>
+        <v>0.01058014140568486</v>
       </c>
       <c r="H7">
-        <v>0.4306055767074374</v>
+        <v>0.4754663781707043</v>
       </c>
       <c r="I7">
-        <v>0.01072432881106478</v>
+        <v>0.0110422450725392</v>
       </c>
       <c r="J7">
-        <v>0.9642124106153261</v>
+        <v>0.9665194060019584</v>
       </c>
       <c r="K7">
-        <v>0.002990708911148054</v>
+        <v>0.002670385977339818</v>
       </c>
       <c r="L7">
-        <v>0.7854444444444443</v>
+        <v>0.8024489795918367</v>
       </c>
       <c r="M7">
-        <v>0.007116074841040043</v>
+        <v>0.006776712913076799</v>
       </c>
       <c r="N7">
-        <v>0.7951401869158878</v>
+        <v>0.8129661016949153</v>
       </c>
       <c r="O7">
-        <v>0.007255138211277767</v>
+        <v>0.00679903449350705</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8244477987421385</v>
+        <v>0.8192731829573934</v>
       </c>
       <c r="C8">
-        <v>0.00487631924958265</v>
+        <v>0.004405267122689738</v>
       </c>
       <c r="D8">
-        <v>0.4591665652031628</v>
+        <v>0.4491850257271375</v>
       </c>
       <c r="E8">
-        <v>0.006212315233480648</v>
+        <v>0.006675418173162639</v>
       </c>
       <c r="F8">
-        <v>0.8612000000000002</v>
+        <v>0.8271428571428572</v>
       </c>
       <c r="G8">
-        <v>0.006426690037309224</v>
+        <v>0.008529992812058684</v>
       </c>
       <c r="H8">
-        <v>0.3133988846504332</v>
+        <v>0.3085780167696343</v>
       </c>
       <c r="I8">
-        <v>0.005201821113026472</v>
+        <v>0.005367049988599271</v>
       </c>
       <c r="J8">
-        <v>0.9696955774665844</v>
+        <v>0.9607272417718076</v>
       </c>
       <c r="K8">
-        <v>0.001474646924545242</v>
+        <v>0.002021791149303787</v>
       </c>
       <c r="L8">
-        <v>0.7011949685534592</v>
+        <v>0.6947953216374271</v>
       </c>
       <c r="M8">
-        <v>0.006047626739451695</v>
+        <v>0.005389072796692651</v>
       </c>
       <c r="N8">
-        <v>0.7229347826086956</v>
+        <v>0.7134170854271358</v>
       </c>
       <c r="O8">
-        <v>0.005633693206525958</v>
+        <v>0.005335659658572411</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8693459119496856</v>
+        <v>0.8667543859649123</v>
       </c>
       <c r="C9">
-        <v>0.004265319158763936</v>
+        <v>0.004053699470749961</v>
       </c>
       <c r="D9">
-        <v>0.4966587886882886</v>
+        <v>0.4957043009266121</v>
       </c>
       <c r="E9">
-        <v>0.007577195259686753</v>
+        <v>0.007604779729834504</v>
       </c>
       <c r="F9">
-        <v>0.8628000000000001</v>
+        <v>0.8471428571428572</v>
       </c>
       <c r="G9">
-        <v>0.007588917507969195</v>
+        <v>0.008491848438437311</v>
       </c>
       <c r="H9">
-        <v>0.3493623758788356</v>
+        <v>0.3509461688169697</v>
       </c>
       <c r="I9">
-        <v>0.006782561980246515</v>
+        <v>0.006661000717143317</v>
       </c>
       <c r="J9">
-        <v>0.9717762613451866</v>
+        <v>0.9672406034598449</v>
       </c>
       <c r="K9">
-        <v>0.001581100778839328</v>
+        <v>0.001867520035384596</v>
       </c>
       <c r="L9">
-        <v>0.7446540880503143</v>
+        <v>0.7410526315789474</v>
       </c>
       <c r="M9">
-        <v>0.006500210758010994</v>
+        <v>0.006236926300736689</v>
       </c>
       <c r="N9">
-        <v>0.7607065217391306</v>
+        <v>0.7559798994974872</v>
       </c>
       <c r="O9">
-        <v>0.005964814193798573</v>
+        <v>0.005855863483978596</v>
       </c>
     </row>
   </sheetData>
